--- a/Output_Efficient_Frontier/frontier_points.xlsx
+++ b/Output_Efficient_Frontier/frontier_points.xlsx
@@ -408,16 +408,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.05014410031316727</v>
+        <v>0.05014413854365116</v>
       </c>
       <c r="C2">
-        <v>0.02382516734784934</v>
+        <v>0.02382512358491749</v>
       </c>
       <c r="D2">
-        <v>0.07628349743957606</v>
+        <v>0.07628256653741633</v>
       </c>
       <c r="E2">
-        <v>0.09316323334575367</v>
+        <v>0.09316318378692803</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -425,16 +425,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.05994110817780112</v>
+        <v>0.05994114283306043</v>
       </c>
       <c r="C3">
-        <v>0.04183555314364694</v>
+        <v>0.04183550774328206</v>
       </c>
       <c r="D3">
-        <v>0.36428344098806</v>
+        <v>0.3642824729601039</v>
       </c>
       <c r="E3">
-        <v>0.08804337226269016</v>
+        <v>0.08804328716910266</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -442,16 +442,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.06973810858826592</v>
+        <v>0.06973813918997933</v>
       </c>
       <c r="C4">
-        <v>0.05740279714705453</v>
+        <v>0.05740274496232715</v>
       </c>
       <c r="D4">
-        <v>0.5363322565554622</v>
+        <v>0.5363312729127356</v>
       </c>
       <c r="E4">
-        <v>0.08367300954238382</v>
+        <v>0.08367291379058313</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -459,16 +459,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.07953511812735316</v>
+        <v>0.07953514471131264</v>
       </c>
       <c r="C5">
-        <v>0.07225733503767381</v>
+        <v>0.07225727949541204</v>
       </c>
       <c r="D5">
-        <v>0.6570347321795431</v>
+        <v>0.6570338142350705</v>
       </c>
       <c r="E5">
-        <v>0.08069265651572821</v>
+        <v>0.08069254962306677</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -476,16 +476,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.08933213883667432</v>
+        <v>0.08933216123296729</v>
       </c>
       <c r="C6">
-        <v>0.08668576560415517</v>
+        <v>0.08668570774231998</v>
       </c>
       <c r="D6">
-        <v>0.7464924323157263</v>
+        <v>0.746491597448447</v>
       </c>
       <c r="E6">
-        <v>0.07903321371455853</v>
+        <v>0.07903309747317794</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -493,16 +493,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.09912913368907149</v>
+        <v>0.0991291521382603</v>
       </c>
       <c r="C7">
-        <v>0.1008347223930166</v>
+        <v>0.1008346607148903</v>
       </c>
       <c r="D7">
-        <v>0.8154486918705741</v>
+        <v>0.8154479179055849</v>
       </c>
       <c r="E7">
-        <v>0.07868405454752889</v>
+        <v>0.07868398932294562</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -510,16 +510,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1089261482683078</v>
+        <v>0.1089261626554772</v>
       </c>
       <c r="C8">
-        <v>0.1147946502415988</v>
+        <v>0.1147945921446478</v>
       </c>
       <c r="D8">
-        <v>0.8702653288363764</v>
+        <v>0.8702646805292668</v>
       </c>
       <c r="E8">
-        <v>0.07926090347860321</v>
+        <v>0.07926084136655126</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -527,16 +527,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1187231521200777</v>
+        <v>0.1187231623086896</v>
       </c>
       <c r="C9">
-        <v>0.1286069284844905</v>
+        <v>0.1286068650087909</v>
       </c>
       <c r="D9">
-        <v>0.914791483759161</v>
+        <v>0.914790870600334</v>
       </c>
       <c r="E9">
-        <v>0.0815321910243272</v>
+        <v>0.08153219060762092</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -544,16 +544,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1285201651289156</v>
+        <v>0.1285201714051942</v>
       </c>
       <c r="C10">
-        <v>0.1422782206329636</v>
+        <v>0.1422781798992855</v>
       </c>
       <c r="D10">
-        <v>0.9514321780578882</v>
+        <v>0.9514318146508757</v>
       </c>
       <c r="E10">
-        <v>0.08354926832608964</v>
+        <v>0.08354926607731623</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -561,16 +561,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.13831714939895</v>
+        <v>0.1383171516603056</v>
       </c>
       <c r="C11">
-        <v>0.1554007010564332</v>
+        <v>0.1554006795235867</v>
       </c>
       <c r="D11">
-        <v>0.9789147740884624</v>
+        <v>0.9789146024067824</v>
       </c>
       <c r="E11">
-        <v>0.08443424794834903</v>
+        <v>0.0844342492647734</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -578,16 +578,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.1481141566579912</v>
+        <v>0.1481141548693799</v>
       </c>
       <c r="C12">
-        <v>0.1653174895613667</v>
+        <v>0.1653174727191271</v>
       </c>
       <c r="D12">
-        <v>0.9811181648012066</v>
+        <v>0.9811180629378795</v>
       </c>
       <c r="E12">
-        <v>0.08477185325816251</v>
+        <v>0.08477185635818021</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -595,16 +595,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.1579111789252873</v>
+        <v>0.1579111730901171</v>
       </c>
       <c r="C13">
-        <v>0.1734873208496035</v>
+        <v>0.1734873066089214</v>
       </c>
       <c r="D13">
-        <v>0.9719851494631874</v>
+        <v>0.9719850951986084</v>
       </c>
       <c r="E13">
-        <v>0.08911963072424479</v>
+        <v>0.08911962994420626</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -612,16 +612,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.1677081693459538</v>
+        <v>0.1677081594625371</v>
       </c>
       <c r="C14">
-        <v>0.1805553275445385</v>
+        <v>0.1805553176016694</v>
       </c>
       <c r="D14">
-        <v>0.9573494730202429</v>
+        <v>0.9573494701522527</v>
       </c>
       <c r="E14">
-        <v>0.09245997813057545</v>
+        <v>0.09245999912002149</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -629,16 +629,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.1775051738760982</v>
+        <v>0.177505159945536</v>
       </c>
       <c r="C15">
-        <v>0.1869083022689851</v>
+        <v>0.1869082951141528</v>
       </c>
       <c r="D15">
-        <v>0.9403010550300361</v>
+        <v>0.9403010885168939</v>
       </c>
       <c r="E15">
-        <v>0.0978466726197442</v>
+        <v>0.09784668972329537</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -646,16 +646,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.1873021799631511</v>
+        <v>0.1873021619852564</v>
       </c>
       <c r="C16">
-        <v>0.1928062332237634</v>
+        <v>0.1928062282988164</v>
       </c>
       <c r="D16">
-        <v>0.9226066309412974</v>
+        <v>0.9226066932020728</v>
       </c>
       <c r="E16">
-        <v>0.1047363470490209</v>
+        <v>0.1047363605653641</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -663,16 +663,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.1970991861275518</v>
+        <v>0.1970991641022199</v>
       </c>
       <c r="C17">
-        <v>0.1983858644198057</v>
+        <v>0.1983858613671798</v>
       </c>
       <c r="D17">
-        <v>0.9050563217666668</v>
+        <v>0.9050564074166497</v>
       </c>
       <c r="E17">
-        <v>0.112621763162642</v>
+        <v>0.1126217733018359</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -680,16 +680,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.2068961922257328</v>
+        <v>0.206896166153116</v>
       </c>
       <c r="C18">
-        <v>0.2037301208669873</v>
+        <v>0.2037301194375868</v>
       </c>
       <c r="D18">
-        <v>0.888030460543854</v>
+        <v>0.8880305655427911</v>
       </c>
       <c r="E18">
-        <v>0.1211779063158489</v>
+        <v>0.121177913244121</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -697,16 +697,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.2166931983353272</v>
+        <v>0.2166931682153049</v>
       </c>
       <c r="C19">
-        <v>0.2010320682640999</v>
+        <v>0.201032031834358</v>
       </c>
       <c r="D19">
-        <v>0.8354303210936849</v>
+        <v>0.8354302691005275</v>
       </c>
       <c r="E19">
-        <v>0.1239406813524263</v>
+        <v>0.123940659832384</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -714,16 +714,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.2264902044743635</v>
+        <v>0.2264901703069861</v>
       </c>
       <c r="C20">
-        <v>0.1801546137923584</v>
+        <v>0.1801545652213858</v>
       </c>
       <c r="D20">
-        <v>0.707114968455452</v>
+        <v>0.7071148606772264</v>
       </c>
       <c r="E20">
-        <v>0.1166125741143661</v>
+        <v>0.1166125539359748</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -731,16 +731,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.236287213232104</v>
+        <v>0.2362871750182357</v>
       </c>
       <c r="C21">
-        <v>0.1660301952391066</v>
+        <v>0.166030142096393</v>
       </c>
       <c r="D21">
-        <v>0.6180198803041521</v>
+        <v>0.6180197553469543</v>
       </c>
       <c r="E21">
-        <v>0.1176197342441423</v>
+        <v>0.1176197148402894</v>
       </c>
     </row>
   </sheetData>

--- a/Output_Efficient_Frontier/frontier_points.xlsx
+++ b/Output_Efficient_Frontier/frontier_points.xlsx
@@ -408,16 +408,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.05014413854365116</v>
+        <v>0.05012136220273911</v>
       </c>
       <c r="C2">
-        <v>0.02382512358491749</v>
+        <v>0.0244971996836365</v>
       </c>
       <c r="D2">
-        <v>0.07628256653741633</v>
+        <v>0.08972620627199804</v>
       </c>
       <c r="E2">
-        <v>0.09316318378692803</v>
+        <v>0.09340182109074394</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -425,16 +425,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.05994114283306043</v>
+        <v>0.05992164912622113</v>
       </c>
       <c r="C3">
-        <v>0.04183550774328206</v>
+        <v>0.04305831294646457</v>
       </c>
       <c r="D3">
-        <v>0.3642824729601039</v>
+        <v>0.3848077161209916</v>
       </c>
       <c r="E3">
-        <v>0.08804328716910266</v>
+        <v>0.0886360310169084</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -442,16 +442,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.06973813918997933</v>
+        <v>0.06972193611706423</v>
       </c>
       <c r="C4">
-        <v>0.05740274496232715</v>
+        <v>0.05900990674797509</v>
       </c>
       <c r="D4">
-        <v>0.5363312729127356</v>
+        <v>0.5595069345532349</v>
       </c>
       <c r="E4">
-        <v>0.08367291379058313</v>
+        <v>0.0844612891307073</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -459,16 +459,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.07953514471131264</v>
+        <v>0.07952223236844244</v>
       </c>
       <c r="C5">
-        <v>0.07225727949541204</v>
+        <v>0.07420254331042755</v>
       </c>
       <c r="D5">
-        <v>0.6570338142350705</v>
+        <v>0.681602385849737</v>
       </c>
       <c r="E5">
-        <v>0.08069254962306677</v>
+        <v>0.08177687344301748</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -476,16 +476,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.08933216123296729</v>
+        <v>0.08932250594107831</v>
       </c>
       <c r="C6">
-        <v>0.08668570774231998</v>
+        <v>0.08901349219829197</v>
       </c>
       <c r="D6">
-        <v>0.746491597448447</v>
+        <v>0.772632736522381</v>
       </c>
       <c r="E6">
-        <v>0.07903309747317794</v>
+        <v>0.08021658463190323</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -493,16 +493,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.0991291521382603</v>
+        <v>0.09912280615830615</v>
       </c>
       <c r="C7">
-        <v>0.1008346607148903</v>
+        <v>0.10351762679711</v>
       </c>
       <c r="D7">
-        <v>0.8154479179055849</v>
+        <v>0.8425672156993458</v>
       </c>
       <c r="E7">
-        <v>0.07868398932294562</v>
+        <v>0.07964478861840713</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -510,16 +510,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1089261626554772</v>
+        <v>0.1089230838767676</v>
       </c>
       <c r="C8">
-        <v>0.1147945921446478</v>
+        <v>0.1178155838669628</v>
       </c>
       <c r="D8">
-        <v>0.8702646805292668</v>
+        <v>0.8980243708269271</v>
       </c>
       <c r="E8">
-        <v>0.07926084136655126</v>
+        <v>0.08093931122055176</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -527,16 +527,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1187231623086896</v>
+        <v>0.1187233551789573</v>
       </c>
       <c r="C9">
-        <v>0.1286068650087909</v>
+        <v>0.1319670541306158</v>
       </c>
       <c r="D9">
-        <v>0.914790870600334</v>
+        <v>0.9430920644202031</v>
       </c>
       <c r="E9">
-        <v>0.08153219060762092</v>
+        <v>0.08241208181964928</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -544,16 +544,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1285201714051942</v>
+        <v>0.1285236611214288</v>
       </c>
       <c r="C10">
-        <v>0.1422781798992855</v>
+        <v>0.145903354771604</v>
       </c>
       <c r="D10">
-        <v>0.9514318146508757</v>
+        <v>0.9796122649560293</v>
       </c>
       <c r="E10">
-        <v>0.08354926607731623</v>
+        <v>0.08447063463406523</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -561,16 +561,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.1383171516603056</v>
+        <v>0.1383239241546789</v>
       </c>
       <c r="C11">
-        <v>0.1554006795235867</v>
+        <v>0.1587786280061485</v>
       </c>
       <c r="D11">
-        <v>0.9789146024067824</v>
+        <v>1.003287239385727</v>
       </c>
       <c r="E11">
-        <v>0.0844342492647734</v>
+        <v>0.08386811858590329</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -578,16 +578,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.1481141548693799</v>
+        <v>0.1481242096886722</v>
       </c>
       <c r="C12">
-        <v>0.1653174727191271</v>
+        <v>0.168178265637821</v>
       </c>
       <c r="D12">
-        <v>0.9811180629378795</v>
+        <v>1.000364936624893</v>
       </c>
       <c r="E12">
-        <v>0.08477185635818021</v>
+        <v>0.08453293609106616</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -595,16 +595,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.1579111730901171</v>
+        <v>0.157924494072955</v>
       </c>
       <c r="C13">
-        <v>0.1734873066089214</v>
+        <v>0.1760024498177753</v>
       </c>
       <c r="D13">
-        <v>0.9719850951986084</v>
+        <v>0.9878293467618026</v>
       </c>
       <c r="E13">
-        <v>0.08911962994420626</v>
+        <v>0.08900194345521374</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -612,16 +612,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.1677081594625371</v>
+        <v>0.1677247796046293</v>
       </c>
       <c r="C14">
-        <v>0.1805553176016694</v>
+        <v>0.1828069295495394</v>
       </c>
       <c r="D14">
-        <v>0.9573494701522527</v>
+        <v>0.9706790489355092</v>
       </c>
       <c r="E14">
-        <v>0.09245999912002149</v>
+        <v>0.09246480978039957</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -629,16 +629,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.177505159945536</v>
+        <v>0.1775250644506804</v>
       </c>
       <c r="C15">
-        <v>0.1869082951141528</v>
+        <v>0.1889430967340454</v>
       </c>
       <c r="D15">
-        <v>0.9403010885168939</v>
+        <v>0.9516577124295639</v>
       </c>
       <c r="E15">
-        <v>0.09784668972329537</v>
+        <v>0.09789948310944947</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -646,16 +646,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.1873021619852564</v>
+        <v>0.1873253489518883</v>
       </c>
       <c r="C16">
-        <v>0.1928062282988164</v>
+        <v>0.194650849811682</v>
       </c>
       <c r="D16">
-        <v>0.9226066932020728</v>
+        <v>0.9323396475110178</v>
       </c>
       <c r="E16">
-        <v>0.1047363605653641</v>
+        <v>0.1048016771010122</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -663,16 +663,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.1970991641022199</v>
+        <v>0.1971256339521996</v>
       </c>
       <c r="C17">
-        <v>0.1983858613671798</v>
+        <v>0.2000574739716125</v>
       </c>
       <c r="D17">
-        <v>0.9050564074166497</v>
+        <v>0.9134148124808266</v>
       </c>
       <c r="E17">
-        <v>0.1126217733018359</v>
+        <v>0.1126804481780347</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -680,16 +680,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.206896166153116</v>
+        <v>0.2069259191397211</v>
       </c>
       <c r="C18">
-        <v>0.2037301194375868</v>
+        <v>0.2052406929681074</v>
       </c>
       <c r="D18">
-        <v>0.8880305655427911</v>
+        <v>0.8952029486602336</v>
       </c>
       <c r="E18">
-        <v>0.121177913244121</v>
+        <v>0.1212195865486149</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -697,16 +697,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.2166931682153049</v>
+        <v>0.2167262039051711</v>
       </c>
       <c r="C19">
-        <v>0.201032031834358</v>
+        <v>0.2023927186208568</v>
       </c>
       <c r="D19">
-        <v>0.8354302691005275</v>
+        <v>0.8415812916681873</v>
       </c>
       <c r="E19">
-        <v>0.123940659832384</v>
+        <v>0.1239648073098157</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -714,16 +714,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.2264901703069861</v>
+        <v>0.2265264896354649</v>
       </c>
       <c r="C20">
-        <v>0.1801545652213858</v>
+        <v>0.1814057816739385</v>
       </c>
       <c r="D20">
-        <v>0.7071148606772264</v>
+        <v>0.7125249763666885</v>
       </c>
       <c r="E20">
-        <v>0.1166125539359748</v>
+        <v>0.1166200242673334</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -731,16 +731,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.2362871750182357</v>
+        <v>0.2363267737513687</v>
       </c>
       <c r="C21">
-        <v>0.166030142096393</v>
+        <v>0.1631830792355481</v>
       </c>
       <c r="D21">
-        <v>0.6180197553469543</v>
+        <v>0.6058690556415166</v>
       </c>
       <c r="E21">
-        <v>0.1176197148402894</v>
+        <v>0.1328597183861923</v>
       </c>
     </row>
   </sheetData>
